--- a/Umlageverfahren/TreppenBlockumlage.xlsx
+++ b/Umlageverfahren/TreppenBlockumlage.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/KLR-Cheats/Umlageverfahren/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6F59254-B165-F543-9CE5-CF18A9E3D5CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32225C8B-BD46-D54F-8B1B-A2534CCECB47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FF97A44B-195A-4F4A-A734-445FAE5DD2BE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{FF97A44B-195A-4F4A-A734-445FAE5DD2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,10 +92,10 @@
     <t>Verteilungsgrundlagen eintragen</t>
   </si>
   <si>
-    <t>Block:</t>
+    <t>Treppenumlage:</t>
   </si>
   <si>
-    <t>Treppe:</t>
+    <t>Blockumlage:</t>
   </si>
 </sst>
 </file>
@@ -399,876 +398,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thick">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thick">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1299,6 +428,24 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1329,6 +476,24 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1359,6 +524,24 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1388,6 +571,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1404,6 +594,815 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1419,7 +1418,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC2771BA-15AA-7E4D-B737-8B1F4A75694F}" name="Tabelle2" displayName="Tabelle2" ref="A38:O48" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC2771BA-15AA-7E4D-B737-8B1F4A75694F}" name="Tabelle2" displayName="Tabelle2" ref="A38:O48" headerRowCount="0" totalsRowShown="0" headerRowDxfId="49">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{FC5E202D-E545-BD4A-A45A-0D3A8535B8B1}" name="Spalte1"/>
     <tableColumn id="2" xr3:uid="{D717DA71-A5F3-9B43-A927-72BB70AE08AB}" name="Spalte2"/>
@@ -1427,7 +1426,7 @@
     <tableColumn id="4" xr3:uid="{23DE08B6-C77A-1E44-8AD2-D047051D50D6}" name="Spalte4"/>
     <tableColumn id="5" xr3:uid="{FC720F40-98A0-A64F-AF6E-419E9EA3A66E}" name="Spalte5"/>
     <tableColumn id="6" xr3:uid="{B0E300F5-BDC5-8847-BAD0-9D09B043FC1D}" name="Spalte6"/>
-    <tableColumn id="7" xr3:uid="{037A4CB1-503D-484A-BB61-6FB8409DAD9F}" name="Spalte7" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{037A4CB1-503D-484A-BB61-6FB8409DAD9F}" name="Spalte7" dataDxfId="48"/>
     <tableColumn id="8" xr3:uid="{5D012E5B-DAFE-CA4F-8E1A-A9FA5E0D12B5}" name="Spalte8"/>
     <tableColumn id="9" xr3:uid="{0EF25349-3DC8-CC4B-AF85-E5B24BA58908}" name="Spalte9"/>
     <tableColumn id="10" xr3:uid="{20E2AE89-E013-4F4B-855D-CFC3F3EB5425}" name="Spalte10"/>
@@ -1442,7 +1441,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BEDED4A-B5BF-2E4B-A415-EAA61210D56E}" name="Tabelle3" displayName="Tabelle3" ref="A53:O63" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BEDED4A-B5BF-2E4B-A415-EAA61210D56E}" name="Tabelle3" displayName="Tabelle3" ref="A53:O63" headerRowCount="0" totalsRowShown="0" headerRowDxfId="47">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{9284595B-02DE-BE47-8FDA-D20EE8CCD19E}" name="Spalte1"/>
     <tableColumn id="2" xr3:uid="{8618D6FF-8E45-FF43-9958-0E5CD33BBDAD}" name="Spalte2"/>
@@ -1450,7 +1449,7 @@
     <tableColumn id="4" xr3:uid="{00A06E49-8F3E-5349-BB24-9C9B2007D791}" name="Spalte4"/>
     <tableColumn id="5" xr3:uid="{6E21ED20-6454-9144-906E-3A9EA57A4459}" name="Spalte5"/>
     <tableColumn id="6" xr3:uid="{ADA24A1A-B5A9-2E44-A757-33FA02954089}" name="Spalte6"/>
-    <tableColumn id="7" xr3:uid="{D75253D2-5B8F-6D48-B01A-7253E1B44B06}" name="Spalte7" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D75253D2-5B8F-6D48-B01A-7253E1B44B06}" name="Spalte7" dataDxfId="46"/>
     <tableColumn id="8" xr3:uid="{B0B6C474-D0DE-DB47-A4BF-C2F50FEA6D9C}" name="Spalte8"/>
     <tableColumn id="9" xr3:uid="{9CE1559F-5751-3147-A203-3D35E3397C42}" name="Spalte9"/>
     <tableColumn id="10" xr3:uid="{322363C7-A0BA-C84A-97F3-79CA5B3C2E60}" name="Spalte10"/>
@@ -1465,58 +1464,58 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{87A40519-DDD3-0248-BE83-8EEAD1A40243}" name="Tabelle5" displayName="Tabelle5" ref="A16:O22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{87A40519-DDD3-0248-BE83-8EEAD1A40243}" name="Tabelle5" displayName="Tabelle5" ref="A16:O22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{252C5976-7BCC-3149-8AB7-C3373B6E89D5}" name="Spalte1" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{8DF4F67C-9030-0943-A349-9BCB2301B6B8}" name="Spalte2" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{6DC00107-670B-0140-8A06-A523A5C3E628}" name="Spalte3" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{AFD3F7F3-53EE-F543-A714-D95AFA8EEC37}" name="Spalte4" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{E0143B0F-6EB6-3542-9B1C-8B909E0C2435}" name="Spalte5" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{5704D651-EC52-B146-B709-8CAFF330DB3B}" name="Spalte6" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{CDC62B94-D8B5-0744-BC99-5D62C8344DB9}" name="Spalte7" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{087A01C0-12F1-AC47-8CF1-1A72D72A6B2B}" name="Spalte8" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{C7ED38A3-FA4C-184C-9A2D-92251711BD7B}" name="Spalte9" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{CB9987E9-EFED-194A-9FF3-B16E3991CB1F}" name="Spalte10" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{AF77DADE-CC79-644F-ADB6-D9CAFC344B76}" name="Spalte11" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{3312EF97-B1A9-F74E-93A2-15BD99D75383}" name="Spalte12" dataDxfId="39"/>
-    <tableColumn id="13" xr3:uid="{7266EF1F-6251-C541-A978-F19188BED7CA}" name="Spalte13" dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{85D181A4-CAC4-8643-9E61-D40170F7256E}" name="Spalte14" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{2618817B-B90A-CB48-AA36-9E942DD22CC3}" name="Spalte15" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{252C5976-7BCC-3149-8AB7-C3373B6E89D5}" name="Spalte1" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{8DF4F67C-9030-0943-A349-9BCB2301B6B8}" name="Spalte2" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{6DC00107-670B-0140-8A06-A523A5C3E628}" name="Spalte3" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{AFD3F7F3-53EE-F543-A714-D95AFA8EEC37}" name="Spalte4" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{E0143B0F-6EB6-3542-9B1C-8B909E0C2435}" name="Spalte5" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{5704D651-EC52-B146-B709-8CAFF330DB3B}" name="Spalte6" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{CDC62B94-D8B5-0744-BC99-5D62C8344DB9}" name="Spalte7" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{087A01C0-12F1-AC47-8CF1-1A72D72A6B2B}" name="Spalte8" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{C7ED38A3-FA4C-184C-9A2D-92251711BD7B}" name="Spalte9" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{CB9987E9-EFED-194A-9FF3-B16E3991CB1F}" name="Spalte10" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{AF77DADE-CC79-644F-ADB6-D9CAFC344B76}" name="Spalte11" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{3312EF97-B1A9-F74E-93A2-15BD99D75383}" name="Spalte12" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{7266EF1F-6251-C541-A978-F19188BED7CA}" name="Spalte13" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{85D181A4-CAC4-8643-9E61-D40170F7256E}" name="Spalte14" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{2618817B-B90A-CB48-AA36-9E942DD22CC3}" name="Spalte15" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E01AA589-A367-4D49-90EA-5D4B99B007D1}" name="Tabelle7" displayName="Tabelle7" ref="A7:O9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E01AA589-A367-4D49-90EA-5D4B99B007D1}" name="Tabelle7" displayName="Tabelle7" ref="A7:O9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{01033261-7893-AE40-90CE-419150E0D84E}" name="Spalte1" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{ED047F6E-1EB8-344A-96B9-73EAF8F84FF6}" name="Spalte2" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{850FE48C-4BA4-1747-957B-AF36F9162703}" name="Spalte3" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{D15BD0AF-3E46-0348-9DAA-C6FF1820A633}" name="Spalte4" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{EF6C806B-9BE3-064D-B317-2EEA244C05B9}" name="Spalte5" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{0997CAEA-86AE-3647-93BE-2F95A4871F2F}" name="Spalte6" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{1054A61C-C96E-0C4C-BEF2-0F4E6BAA2534}" name="Spalte7" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{A315C55B-7A75-E44F-BA6F-A333BF598238}" name="Spalte8" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{8DB8B8DE-8C2D-BA4A-A4E4-72CD919F3129}" name="Spalte9" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{35B878DC-00BA-324F-BA94-9CA5372F40ED}" name="Spalte10" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{A78DCFEC-763A-E04A-95CB-AED299B7AC07}" name="Spalte11" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{0158C4F7-C52A-F647-895A-F62FB9274B05}" name="Spalte12" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{9C2D0FC5-075C-2D4D-BC6C-D8B637E1C701}" name="Spalte13" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{8A43A82A-9DE0-234C-AA8E-80A98B898B2C}" name="Spalte14" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{B71CA0D3-0C7D-514B-AE41-C2299901697D}" name="Spalte15" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{01033261-7893-AE40-90CE-419150E0D84E}" name="Spalte1" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{ED047F6E-1EB8-344A-96B9-73EAF8F84FF6}" name="Spalte2" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{850FE48C-4BA4-1747-957B-AF36F9162703}" name="Spalte3" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{D15BD0AF-3E46-0348-9DAA-C6FF1820A633}" name="Spalte4" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{EF6C806B-9BE3-064D-B317-2EEA244C05B9}" name="Spalte5" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{0997CAEA-86AE-3647-93BE-2F95A4871F2F}" name="Spalte6" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{1054A61C-C96E-0C4C-BEF2-0F4E6BAA2534}" name="Spalte7" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{A315C55B-7A75-E44F-BA6F-A333BF598238}" name="Spalte8" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{8DB8B8DE-8C2D-BA4A-A4E4-72CD919F3129}" name="Spalte9" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{35B878DC-00BA-324F-BA94-9CA5372F40ED}" name="Spalte10" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{A78DCFEC-763A-E04A-95CB-AED299B7AC07}" name="Spalte11" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{0158C4F7-C52A-F647-895A-F62FB9274B05}" name="Spalte12" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{9C2D0FC5-075C-2D4D-BC6C-D8B637E1C701}" name="Spalte13" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{8A43A82A-9DE0-234C-AA8E-80A98B898B2C}" name="Spalte14" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{B71CA0D3-0C7D-514B-AE41-C2299901697D}" name="Spalte15" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ACEE3666-CFF6-7246-9916-0D5DA057A1E2}" name="Tabelle8" displayName="Tabelle8" ref="B25:E31" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ACEE3666-CFF6-7246-9916-0D5DA057A1E2}" name="Tabelle8" displayName="Tabelle8" ref="B25:E31" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6A2EF9C8-A1EF-2C4B-BF73-0975CB64AA67}" name="Brechnete Werte" headerRowDxfId="45" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{940DB4E9-CBF4-F340-B7CE-53BCA9E32303}" name="Spalte1" headerRowDxfId="46" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9F2678A0-B712-5046-B921-26BA3BB3A798}" name="Spalte2" headerRowDxfId="47" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{BEEC7814-69D7-1040-B301-DDE3D9E5A5C5}" name="Spalte3" headerRowDxfId="48" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6A2EF9C8-A1EF-2C4B-BF73-0975CB64AA67}" name="Brechnete Werte" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{940DB4E9-CBF4-F340-B7CE-53BCA9E32303}" name="Spalte1" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9F2678A0-B712-5046-B921-26BA3BB3A798}" name="Spalte2" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BEEC7814-69D7-1040-B301-DDE3D9E5A5C5}" name="Spalte3" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1821,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1340EC90-DFCB-1740-AD63-8C0B94E16C97}">
   <dimension ref="A3:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1923,15 +1922,9 @@
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17">
-        <v>88</v>
-      </c>
-      <c r="C9" s="17">
-        <v>900</v>
-      </c>
-      <c r="D9" s="17">
-        <v>90</v>
-      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="24"/>
@@ -2021,9 +2014,7 @@
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="26">
-        <v>89</v>
-      </c>
+      <c r="B17" s="26"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -2138,11 +2129,11 @@
         <v>17</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" s="30"/>
     </row>
@@ -2174,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="4">
-        <f>SUM(H17:O17)</f>
+        <f t="shared" ref="D26:D31" si="0">SUM(H17:O17)</f>
         <v>0</v>
       </c>
       <c r="E26" s="4">
@@ -2195,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="4">
-        <f>SUM(H18:O18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="4">
@@ -2216,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <f>SUM(H19:O19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="4">
@@ -2237,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="4">
-        <f>SUM(H20:O20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="4">
@@ -2250,7 +2241,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="4">
-        <f>SUM(G21:N21)</f>
+        <f>SUM(G21:O21)</f>
         <v>0</v>
       </c>
       <c r="C30" s="4">
@@ -2258,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <f>SUM(H21:O21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="4">
@@ -2279,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <f>SUM(H22:O22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" s="4">
@@ -2366,59 +2357,59 @@
         <v>14</v>
       </c>
       <c r="B40" s="7">
-        <f>B9</f>
-        <v>88</v>
+        <f t="shared" ref="B40:O40" si="1">B9</f>
+        <v>0</v>
       </c>
       <c r="C40" s="7">
-        <f>C9</f>
-        <v>900</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <f>D9</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E40" s="7">
-        <f>E9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <f>F9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G40" s="28">
-        <f>G9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="7">
-        <f>H9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <f>I9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40" s="7">
-        <f>J9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40" s="7">
-        <f>K9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L40" s="7">
-        <f>L9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M40" s="7">
-        <f>M9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N40" s="7">
-        <f>N9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O40" s="7">
-        <f>O9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2433,35 +2424,35 @@
       <c r="F41" s="7"/>
       <c r="G41" s="28"/>
       <c r="H41" s="7">
-        <f>E26*H17</f>
+        <f t="shared" ref="H41:H46" si="2">E26*H17</f>
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <f>I17*E26</f>
+        <f t="shared" ref="I41:I46" si="3">I17*E26</f>
         <v>0</v>
       </c>
       <c r="J41" s="7">
-        <f>J17*E26</f>
+        <f t="shared" ref="J41:J46" si="4">J17*E26</f>
         <v>0</v>
       </c>
       <c r="K41" s="7">
-        <f>E26*K17</f>
+        <f t="shared" ref="K41:K46" si="5">E26*K17</f>
         <v>0</v>
       </c>
       <c r="L41" s="7">
-        <f>E26*L17</f>
+        <f t="shared" ref="L41:L46" si="6">E26*L17</f>
         <v>0</v>
       </c>
       <c r="M41" s="7">
-        <f>E26*M17</f>
+        <f t="shared" ref="M41:M46" si="7">E26*M17</f>
         <v>0</v>
       </c>
       <c r="N41" s="7">
-        <f>N17*E26</f>
+        <f t="shared" ref="N41:N46" si="8">N17*E26</f>
         <v>0</v>
       </c>
       <c r="O41" s="7">
-        <f>E26*O17</f>
+        <f t="shared" ref="O41:O46" si="9">E26*O17</f>
         <v>0</v>
       </c>
     </row>
@@ -2476,35 +2467,35 @@
       <c r="F42" s="7"/>
       <c r="G42" s="28"/>
       <c r="H42" s="7">
-        <f>E27*H18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <f>I18*E27</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J42" s="7">
-        <f>J18*E27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K42" s="7">
-        <f>E27*K18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L42" s="7">
-        <f>E27*L18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M42" s="7">
-        <f>E27*M18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N42" s="7">
-        <f>N18*E27</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O42" s="7">
-        <f>E27*O18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2519,35 +2510,35 @@
       <c r="F43" s="7"/>
       <c r="G43" s="28"/>
       <c r="H43" s="7">
-        <f>E28*H19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <f>I19*E28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J43" s="7">
-        <f>J19*E28</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K43" s="7">
-        <f>E28*K19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L43" s="7">
-        <f>E28*L19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M43" s="7">
-        <f>E28*M19</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N43" s="7">
-        <f>N19*E28</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O43" s="7">
-        <f>E28*O19</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2562,35 +2553,35 @@
       <c r="F44" s="7"/>
       <c r="G44" s="28"/>
       <c r="H44" s="7">
-        <f>E29*H20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <f>I20*E29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J44" s="7">
-        <f>J20*E29</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K44" s="7">
-        <f>E29*K20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L44" s="7">
-        <f>E29*L20</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M44" s="7">
-        <f>E29*M20</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N44" s="7">
-        <f>N20*E29</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O44" s="7">
-        <f>E29*O20</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2605,35 +2596,35 @@
       <c r="F45" s="7"/>
       <c r="G45" s="28"/>
       <c r="H45" s="7">
-        <f>E30*H21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <f>I21*E30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J45" s="7">
-        <f>J21*E30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K45" s="7">
-        <f>E30*K21</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L45" s="7">
-        <f>E30*L21</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M45" s="7">
-        <f>E30*M21</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N45" s="7">
-        <f>N21*E30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O45" s="7">
-        <f>E30*O21</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2648,35 +2639,35 @@
       <c r="F46" s="7"/>
       <c r="G46" s="28"/>
       <c r="H46" s="7">
-        <f>E31*H22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <f>I22*E31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J46" s="7">
-        <f>J22*E31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K46" s="7">
-        <f>E31*K22</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L46" s="7">
-        <f>E31*L22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M46" s="7">
-        <f>E31*M22</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N46" s="7">
-        <f>N22*E31</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O46" s="7">
-        <f>E31*O22</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2699,27 +2690,27 @@
         <v>0</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" ref="J47:O47" si="0">SUM(J41:J46)</f>
+        <f t="shared" ref="J47:O47" si="10">SUM(J41:J46)</f>
         <v>0</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2734,35 +2725,35 @@
       <c r="F48" s="8"/>
       <c r="G48" s="29"/>
       <c r="H48" s="8">
-        <f>SUM(H40:H46)</f>
+        <f t="shared" ref="H48:O48" si="11">SUM(H40:H46)</f>
         <v>0</v>
       </c>
       <c r="I48" s="8">
-        <f>SUM(I40:I46)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J48" s="8">
-        <f>SUM(J40:J46)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K48" s="8">
-        <f>SUM(K40:K46)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L48" s="8">
-        <f>SUM(L40:L46)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M48" s="8">
-        <f>SUM(M40:M46)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N48" s="8">
-        <f>SUM(N40:N46)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O48" s="8">
-        <f>SUM(O40:O46)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2842,59 +2833,59 @@
         <v>0</v>
       </c>
       <c r="B55" s="7">
-        <f>B9</f>
-        <v>88</v>
+        <f t="shared" ref="B55:O55" si="12">B9</f>
+        <v>0</v>
       </c>
       <c r="C55" s="7">
-        <f>C9</f>
-        <v>900</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="D55" s="7">
-        <f>D9</f>
-        <v>90</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="E55" s="7">
-        <f>E9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <f>F9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G55" s="28">
-        <f>G9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H55" s="7">
-        <f>H9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <f>I9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J55" s="7">
-        <f>J9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K55" s="7">
-        <f>K9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L55" s="7">
-        <f>L9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M55" s="7">
-        <f>M9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N55" s="7">
-        <f>N9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O55" s="7">
-        <f>O9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2908,51 +2899,51 @@
         <v>0</v>
       </c>
       <c r="D56" s="7">
-        <f>C26*D17</f>
+        <f t="shared" ref="D56:D61" si="13">C26*D17</f>
         <v>0</v>
       </c>
       <c r="E56" s="7">
-        <f>E17*C26</f>
+        <f t="shared" ref="E56:E61" si="14">E17*C26</f>
         <v>0</v>
       </c>
       <c r="F56" s="7">
-        <f>F17*C26</f>
+        <f t="shared" ref="F56:F61" si="15">F17*C26</f>
         <v>0</v>
       </c>
       <c r="G56" s="28">
-        <f>G17*C26</f>
+        <f t="shared" ref="G56:G61" si="16">G17*C26</f>
         <v>0</v>
       </c>
       <c r="H56" s="7">
-        <f>H17*C26</f>
+        <f t="shared" ref="H56:H61" si="17">H17*C26</f>
         <v>0</v>
       </c>
       <c r="I56" s="7">
-        <f>I17*C26</f>
+        <f t="shared" ref="I56:I61" si="18">I17*C26</f>
         <v>0</v>
       </c>
       <c r="J56" s="7">
-        <f>J17*C26</f>
+        <f t="shared" ref="J56:J61" si="19">J17*C26</f>
         <v>0</v>
       </c>
       <c r="K56" s="7">
-        <f>K17*C26</f>
+        <f t="shared" ref="K56:K61" si="20">K17*C26</f>
         <v>0</v>
       </c>
       <c r="L56" s="7">
-        <f>L17*C26</f>
+        <f t="shared" ref="L56:L61" si="21">L17*C26</f>
         <v>0</v>
       </c>
       <c r="M56" s="7">
-        <f>M17*C26</f>
+        <f t="shared" ref="M56:M61" si="22">M17*C26</f>
         <v>0</v>
       </c>
       <c r="N56" s="7">
-        <f>N17*C26</f>
+        <f t="shared" ref="N56:N61" si="23">N17*C26</f>
         <v>0</v>
       </c>
       <c r="O56" s="7">
-        <f>O17*C26</f>
+        <f t="shared" ref="O56:O61" si="24">O17*C26</f>
         <v>0</v>
       </c>
     </row>
@@ -2963,51 +2954,51 @@
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7">
-        <f>C27*D18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E57" s="7">
-        <f>E18*C27</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <f>F18*C27</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G57" s="28">
-        <f>G18*C27</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H57" s="7">
-        <f>H18*C27</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <f>I18*C27</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J57" s="7">
-        <f>J18*C27</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K57" s="7">
-        <f>K18*C27</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L57" s="7">
-        <f>L18*C27</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M57" s="7">
-        <f>M18*C27</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N57" s="7">
-        <f>N18*C27</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O57" s="7">
-        <f>O18*C27</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -3018,51 +3009,51 @@
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7">
-        <f>C28*D19</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E58" s="7">
-        <f>E19*C28</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <f>F19*C28</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G58" s="28">
-        <f>G19*C28</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H58" s="7">
-        <f>H19*C28</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <f>I19*C28</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J58" s="7">
-        <f>J19*C28</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K58" s="7">
-        <f>K19*C28</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L58" s="7">
-        <f>L19*C28</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M58" s="7">
-        <f>M19*C28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N58" s="7">
-        <f>N19*C28</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O58" s="7">
-        <f>O19*C28</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -3076,51 +3067,51 @@
         <v>0</v>
       </c>
       <c r="D59" s="7">
-        <f>C29*D20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E59" s="7">
-        <f>E20*C29</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <f>F20*C29</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G59" s="28">
-        <f>G20*C29</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H59" s="7">
-        <f>H20*C29</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <f>I20*C29</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J59" s="7">
-        <f>J20*C29</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K59" s="7">
-        <f>K20*C29</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L59" s="7">
-        <f>L20*C29</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M59" s="7">
-        <f>M20*C29</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N59" s="7">
-        <f>N20*C29</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O59" s="7">
-        <f>O20*C29</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -3134,51 +3125,51 @@
         <v>0</v>
       </c>
       <c r="D60" s="7">
-        <f>C30*D21</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E60" s="7">
-        <f>E21*C30</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <f>F21*C30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G60" s="28">
-        <f>G21*C30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H60" s="7">
-        <f>H21*C30</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <f>I21*C30</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J60" s="7">
-        <f>J21*C30</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K60" s="7">
-        <f>K21*C30</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L60" s="7">
-        <f>L21*C30</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M60" s="7">
-        <f>M21*C30</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N60" s="7">
-        <f>N21*C30</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O60" s="7">
-        <f>O21*C30</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -3192,51 +3183,51 @@
         <v>0</v>
       </c>
       <c r="D61" s="7">
-        <f>C31*D22</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E61" s="7">
-        <f>E22*C31</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <f>F22*C31</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G61" s="28">
-        <f>G22*C31</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H61" s="7">
-        <f>H22*C31</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I61" s="7">
-        <f>I22*C31</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J61" s="7">
-        <f>J22*C31</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K61" s="7">
-        <f>K22*C31</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L61" s="7">
-        <f>L22*C31</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M61" s="7">
-        <f>M22*C31</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N61" s="7">
-        <f>N22*C31</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O61" s="7">
-        <f>O22*C31</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -3259,27 +3250,27 @@
         <v>0</v>
       </c>
       <c r="J62" s="7">
-        <f t="shared" ref="I62:O62" si="1">SUM(J56:J61)</f>
+        <f t="shared" ref="J62:O62" si="25">SUM(J56:J61)</f>
         <v>0</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3294,35 +3285,35 @@
       <c r="F63" s="8"/>
       <c r="G63" s="29"/>
       <c r="H63" s="8">
-        <f>SUM(H55:H61)</f>
+        <f t="shared" ref="H63:O63" si="26">SUM(H55:H61)</f>
         <v>0</v>
       </c>
       <c r="I63" s="8">
-        <f>SUM(I55:I61)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J63" s="8">
-        <f>SUM(J55:J61)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K63" s="8">
-        <f>SUM(K55:K61)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L63" s="8">
-        <f>SUM(L55:L61)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M63" s="8">
-        <f>SUM(M55:M61)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N63" s="8">
-        <f>SUM(N55:N61)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O63" s="8">
-        <f>SUM(O55:O61)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>

--- a/Umlageverfahren/TreppenBlockumlage.xlsx
+++ b/Umlageverfahren/TreppenBlockumlage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/KLR-Cheats/Umlageverfahren/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasholzer/Repositories/KLR-Cheats/Umlageverfahren/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32225C8B-BD46-D54F-8B1B-A2534CCECB47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890710F9-96D7-7D43-9549-22B35A21A10D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{FF97A44B-195A-4F4A-A734-445FAE5DD2BE}"/>
+    <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{FF97A44B-195A-4F4A-A734-445FAE5DD2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -374,8 +374,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
     <dxf>
@@ -1522,7 +1522,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1340EC90-DFCB-1740-AD63-8C0B94E16C97}">
   <dimension ref="A3:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="4">
-        <f>IF(B29&gt;0,SUM(E56:E59)/B31,0)</f>
+        <f>IF(B30&gt;0,SUM(F55:F59)/B30,0)</f>
         <v>0</v>
       </c>
       <c r="D30" s="4">
@@ -3009,7 +3009,7 @@
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7">
-        <f t="shared" si="13"/>
+        <f>C28*D19</f>
         <v>0</v>
       </c>
       <c r="E58" s="7">
